--- a/results/datasetUniform_polytree15.xlsx
+++ b/results/datasetUniform_polytree15.xlsx
@@ -466,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5939999999999973</v>
+        <v>0.6099999999999972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4060000000000027</v>
+        <v>0.3900000000000027</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1250123977661133</v>
+        <v>0.1193947792053223</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6359999999999972</v>
+        <v>0.6179999999999972</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3640000000000028</v>
+        <v>0.3820000000000027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1093454360961914</v>
+        <v>0.1159522533416748</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6239999999999972</v>
+        <v>0.6039999999999973</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3760000000000028</v>
+        <v>0.3960000000000027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1249616146087646</v>
+        <v>0.1381487846374512</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6289999999999972</v>
+        <v>0.6229999999999973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3710000000000028</v>
+        <v>0.3770000000000028</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1305305957794189</v>
+        <v>0.1159322261810303</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5929999999999973</v>
+        <v>0.6109999999999972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4070000000000027</v>
+        <v>0.3890000000000027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1249537467956543</v>
+        <v>0.1220176219940186</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6179999999999972</v>
+        <v>0.6539999999999973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3820000000000027</v>
+        <v>0.3460000000000027</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1249823570251465</v>
+        <v>0.1308212280273438</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6149999999999973</v>
+        <v>0.6299999999999972</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3850000000000028</v>
+        <v>0.3700000000000027</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1249692440032959</v>
+        <v>0.1224350929260254</v>
       </c>
     </row>
     <row r="9">
@@ -620,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5999999999999973</v>
+        <v>0.6209999999999972</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4000000000000027</v>
+        <v>0.3790000000000028</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1249747276306152</v>
+        <v>0.1227216720581055</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6249999999999972</v>
+        <v>0.6219999999999972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3750000000000028</v>
+        <v>0.3780000000000027</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1249678134918213</v>
+        <v>0.1249151229858398</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6329999999999972</v>
+        <v>0.6249999999999972</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3670000000000028</v>
+        <v>0.3750000000000028</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1546497344970703</v>
+        <v>0.1599438190460205</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5939999999999973</v>
+        <v>0.6289999999999972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4060000000000027</v>
+        <v>0.3710000000000028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1288821697235107</v>
+        <v>0.1256301403045654</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6229999999999973</v>
+        <v>0.6299999999999972</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3770000000000028</v>
+        <v>0.3700000000000027</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1173059940338135</v>
+        <v>0.123645544052124</v>
       </c>
     </row>
     <row r="14">
@@ -730,13 +730,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6139999999999972</v>
+        <v>0.6169999999999972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3860000000000027</v>
+        <v>0.3830000000000027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1167035102844238</v>
+        <v>0.1233022212982178</v>
       </c>
     </row>
     <row r="15">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6099999999999972</v>
+        <v>0.6419999999999972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3900000000000027</v>
+        <v>0.3580000000000027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1403450965881348</v>
+        <v>0.1227803230285645</v>
       </c>
     </row>
     <row r="16">
@@ -774,13 +774,13 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6439999999999974</v>
+        <v>0.6319999999999972</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3560000000000028</v>
+        <v>0.3680000000000028</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1211373805999756</v>
+        <v>0.1324591636657715</v>
       </c>
     </row>
     <row r="17">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6129999999999972</v>
+        <v>0.6329999999999972</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3870000000000027</v>
+        <v>0.3670000000000028</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1093060970306396</v>
+        <v>0.1228818893432617</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6029999999999972</v>
+        <v>0.6309999999999973</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3970000000000027</v>
+        <v>0.3690000000000028</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1206212043762207</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6199999999999973</v>
+        <v>0.6309999999999973</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3800000000000028</v>
+        <v>0.3690000000000028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1405918598175049</v>
+        <v>0.1248905658721924</v>
       </c>
     </row>
     <row r="20">
@@ -862,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6049999999999972</v>
+        <v>0.6379999999999972</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3950000000000027</v>
+        <v>0.3620000000000027</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1225533485412598</v>
       </c>
     </row>
     <row r="21">
@@ -884,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6199999999999973</v>
+        <v>0.6329999999999972</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3800000000000028</v>
+        <v>0.3670000000000028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1221780776977539</v>
       </c>
     </row>
     <row r="22">
@@ -906,13 +906,13 @@
         <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6269999999999972</v>
+        <v>0.5879999999999974</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3730000000000027</v>
+        <v>0.4120000000000026</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1229348182678223</v>
       </c>
     </row>
     <row r="23">
@@ -928,13 +928,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6339999999999972</v>
+        <v>0.6309999999999973</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3660000000000027</v>
+        <v>0.3690000000000028</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1249711513519287</v>
+        <v>0.12312912940979</v>
       </c>
     </row>
     <row r="24">
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6459999999999972</v>
+        <v>0.6369999999999972</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3540000000000027</v>
+        <v>0.3630000000000028</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1093888282775879</v>
+        <v>0.1227591037750244</v>
       </c>
     </row>
     <row r="25">
@@ -972,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6419999999999972</v>
+        <v>0.6349999999999972</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3580000000000027</v>
+        <v>0.3650000000000027</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1249303817749023</v>
+        <v>0.122910737991333</v>
       </c>
     </row>
     <row r="26">
@@ -994,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6199999999999973</v>
+        <v>0.6509999999999972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3800000000000028</v>
+        <v>0.3490000000000027</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1210377216339111</v>
       </c>
     </row>
     <row r="27">
@@ -1016,13 +1016,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.851392601985716</v>
+        <v>0.8624226650307245</v>
       </c>
       <c r="E27" t="n">
-        <v>0.148607398014284</v>
+        <v>0.1375773349692755</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1159300804138184</v>
       </c>
     </row>
     <row r="28">
@@ -1038,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8421964722383898</v>
+        <v>0.8655300049367797</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1578035277616102</v>
+        <v>0.1344699950632203</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1315183639526367</v>
       </c>
     </row>
     <row r="29">
@@ -1060,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8482728784316738</v>
+        <v>0.8457672462849346</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1517271215683262</v>
+        <v>0.1542327537150654</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1249711513519287</v>
+        <v>0.1224420070648193</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8301790050789948</v>
+        <v>0.8707577020110293</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1698209949210052</v>
+        <v>0.1292422979889707</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1249701976776123</v>
+        <v>0.115990161895752</v>
       </c>
     </row>
     <row r="31">
@@ -1104,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8610606681860941</v>
+        <v>0.8436006610783281</v>
       </c>
       <c r="E31" t="n">
-        <v>0.138939331813906</v>
+        <v>0.156399338921672</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1315758228302002</v>
       </c>
     </row>
     <row r="32">
@@ -1126,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8515966688639293</v>
+        <v>0.8337887789269991</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1484033311360708</v>
+        <v>0.166211221073001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1159336566925049</v>
       </c>
     </row>
     <row r="33">
@@ -1148,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8503395291312261</v>
+        <v>0.8478901739358428</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1496604708687738</v>
+        <v>0.1521098260641572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1249711513519287</v>
+        <v>0.1315624713897705</v>
       </c>
     </row>
     <row r="34">
@@ -1170,13 +1170,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8489449216598544</v>
+        <v>0.8521609751177314</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1510550783401455</v>
+        <v>0.1478390248822686</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1250152587890625</v>
+        <v>0.1225261688232422</v>
       </c>
     </row>
     <row r="35">
@@ -1192,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8308561400005033</v>
+        <v>0.8465152989705097</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1691438599994967</v>
+        <v>0.1534847010294903</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1249253749847412</v>
+        <v>0.1277666091918945</v>
       </c>
     </row>
     <row r="36">
@@ -1214,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8414079729445693</v>
+        <v>0.8512127550753605</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1585920270554307</v>
+        <v>0.1487872449246394</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1093919277191162</v>
+        <v>0.1228528022766113</v>
       </c>
     </row>
     <row r="37">
@@ -1236,13 +1236,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8495560701627151</v>
+        <v>0.850746735224987</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1504439298372849</v>
+        <v>0.1492532647750131</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1249279975891113</v>
+        <v>0.1205108165740967</v>
       </c>
     </row>
     <row r="38">
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8529904060154214</v>
+        <v>0.8500057433533216</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1470095939845786</v>
+        <v>0.1499942566466785</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1228525638580322</v>
       </c>
     </row>
     <row r="39">
@@ -1280,13 +1280,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8547439693364296</v>
+        <v>0.8502974729683486</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1452560306635703</v>
+        <v>0.1497025270316514</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1405918598175049</v>
+        <v>0.125279426574707</v>
       </c>
     </row>
     <row r="40">
@@ -1302,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8516996621008617</v>
+        <v>0.8199127551883204</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1483003378991383</v>
+        <v>0.1800872448116796</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1093494892120361</v>
+        <v>0.1205053329467773</v>
       </c>
     </row>
     <row r="41">
@@ -1324,13 +1324,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8428379113744483</v>
+        <v>0.8480433057863993</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1571620886255516</v>
+        <v>0.1519566942136006</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1250450611114502</v>
       </c>
     </row>
     <row r="42">
@@ -1346,13 +1346,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8660818287266081</v>
+        <v>0.8632953397419842</v>
       </c>
       <c r="E42" t="n">
-        <v>0.133918171273392</v>
+        <v>0.1367046602580158</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1226253509521484</v>
       </c>
     </row>
     <row r="43">
@@ -1368,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8411497447972882</v>
+        <v>0.8230590392659405</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1588502552027118</v>
+        <v>0.1769409607340595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1249709129333496</v>
+        <v>0.1228790283203125</v>
       </c>
     </row>
     <row r="44">
@@ -1390,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8536234803527667</v>
+        <v>0.8454233768471237</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1463765196472333</v>
+        <v>0.1545766231528763</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1405918598175049</v>
+        <v>0.1209428310394287</v>
       </c>
     </row>
     <row r="45">
@@ -1412,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8532661288154996</v>
+        <v>0.8289132065537529</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1467338711845005</v>
+        <v>0.171086793446247</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1093490123748779</v>
+        <v>0.1328620910644531</v>
       </c>
     </row>
     <row r="46">
@@ -1434,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.861866253737503</v>
+        <v>0.8246357391865478</v>
       </c>
       <c r="E46" t="n">
-        <v>0.138133746262497</v>
+        <v>0.1753642608134522</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1250567436218262</v>
       </c>
     </row>
     <row r="47">
@@ -1456,13 +1456,13 @@
         <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8356118537525614</v>
+        <v>0.8267818660099214</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1643881462474386</v>
+        <v>0.1732181339900785</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1229381561279297</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8377702734920034</v>
+        <v>0.8549854131546275</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1622297265079966</v>
+        <v>0.1450145868453726</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1249706745147705</v>
+        <v>0.1228866577148438</v>
       </c>
     </row>
     <row r="49">
@@ -1500,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8451840858610633</v>
+        <v>0.823316291473436</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1548159141389367</v>
+        <v>0.176683708526564</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1249704360961914</v>
+        <v>0.1224780082702637</v>
       </c>
     </row>
     <row r="50">
@@ -1522,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8245719165414225</v>
+        <v>0.8448964676621393</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1754280834585775</v>
+        <v>0.1551035323378607</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1249711513519287</v>
+        <v>0.1227304935455322</v>
       </c>
     </row>
     <row r="51">
@@ -1544,13 +1544,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8375677466742668</v>
+        <v>0.8378565445934456</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1624322533257331</v>
+        <v>0.1621434554065544</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1250123977661133</v>
+        <v>0.122896671295166</v>
       </c>
     </row>
     <row r="52">
@@ -1566,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.709</v>
+        <v>0.765</v>
       </c>
       <c r="E52" t="n">
-        <v>0.291</v>
+        <v>0.235</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2237632274627686</v>
+        <v>0.2242536544799805</v>
       </c>
     </row>
     <row r="53">
@@ -1588,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.553</v>
+        <v>0.64</v>
       </c>
       <c r="E53" t="n">
-        <v>0.447</v>
+        <v>0.36</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2187070846557617</v>
+        <v>0.2071816921234131</v>
       </c>
     </row>
     <row r="54">
@@ -1610,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>0.64</v>
+        <v>0.628</v>
       </c>
       <c r="E54" t="n">
-        <v>0.36</v>
+        <v>0.372</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2187058925628662</v>
+        <v>0.221970796585083</v>
       </c>
     </row>
     <row r="55">
@@ -1632,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.625</v>
+        <v>0.606</v>
       </c>
       <c r="E55" t="n">
-        <v>0.375</v>
+        <v>0.394</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2186629772186279</v>
+        <v>0.2545034885406494</v>
       </c>
     </row>
     <row r="56">
@@ -1654,13 +1654,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>0.538</v>
+        <v>0.517</v>
       </c>
       <c r="E56" t="n">
-        <v>0.462</v>
+        <v>0.483</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2031219005584717</v>
+        <v>0.2163975238800049</v>
       </c>
     </row>
     <row r="57">
@@ -1676,13 +1676,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.784</v>
       </c>
       <c r="E57" t="n">
-        <v>0.312</v>
+        <v>0.216</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2186849117279053</v>
+        <v>0.2124152183532715</v>
       </c>
     </row>
     <row r="58">
@@ -1698,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.729</v>
       </c>
       <c r="E58" t="n">
-        <v>0.308</v>
+        <v>0.271</v>
       </c>
       <c r="F58" t="n">
-        <v>0.218656063079834</v>
+        <v>0.2464311122894287</v>
       </c>
     </row>
     <row r="59">
@@ -1720,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>0.735</v>
+        <v>0.517</v>
       </c>
       <c r="E59" t="n">
-        <v>0.265</v>
+        <v>0.483</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2187404632568359</v>
+        <v>0.2149362564086914</v>
       </c>
     </row>
     <row r="60">
@@ -1742,13 +1742,13 @@
         <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.446</v>
+        <v>0.638</v>
       </c>
       <c r="E60" t="n">
-        <v>0.554</v>
+        <v>0.362</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2186973094940186</v>
+        <v>0.2228941917419434</v>
       </c>
     </row>
     <row r="61">
@@ -1764,13 +1764,13 @@
         <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.633</v>
+        <v>0.508</v>
       </c>
       <c r="E61" t="n">
-        <v>0.367</v>
+        <v>0.492</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2187001705169678</v>
+        <v>0.2172012329101562</v>
       </c>
     </row>
     <row r="62">
@@ -1786,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.732</v>
+        <v>0.714</v>
       </c>
       <c r="E62" t="n">
-        <v>0.268</v>
+        <v>0.286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2186985015869141</v>
+        <v>0.2131891250610352</v>
       </c>
     </row>
     <row r="63">
@@ -1808,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>0.732</v>
+        <v>0.471</v>
       </c>
       <c r="E63" t="n">
-        <v>0.268</v>
+        <v>0.529</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2186992168426514</v>
+        <v>0.2068448066711426</v>
       </c>
     </row>
     <row r="64">
@@ -1830,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.643</v>
+        <v>0.539</v>
       </c>
       <c r="E64" t="n">
-        <v>0.357</v>
+        <v>0.461</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2343263626098633</v>
+        <v>0.2149038314819336</v>
       </c>
     </row>
     <row r="65">
@@ -1852,13 +1852,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.776</v>
+        <v>0.517</v>
       </c>
       <c r="E65" t="n">
-        <v>0.224</v>
+        <v>0.483</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2186918258666992</v>
+        <v>0.2230966091156006</v>
       </c>
     </row>
     <row r="66">
@@ -1874,13 +1874,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.575</v>
+        <v>0.613</v>
       </c>
       <c r="E66" t="n">
-        <v>0.425</v>
+        <v>0.387</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2186980247497559</v>
+        <v>0.2171316146850586</v>
       </c>
     </row>
     <row r="67">
@@ -1896,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.54</v>
+        <v>0.648</v>
       </c>
       <c r="E67" t="n">
-        <v>0.46</v>
+        <v>0.352</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2187001705169678</v>
+        <v>0.213193416595459</v>
       </c>
     </row>
     <row r="68">
@@ -1918,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="E68" t="n">
-        <v>0.434</v>
+        <v>0.36</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2186994552612305</v>
+        <v>0.2169380187988281</v>
       </c>
     </row>
     <row r="69">
@@ -1940,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.308</v>
+        <v>0.309</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2186965942382812</v>
+        <v>0.2044594287872314</v>
       </c>
     </row>
     <row r="70">
@@ -1962,13 +1962,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>0.587</v>
+        <v>0.572</v>
       </c>
       <c r="E70" t="n">
-        <v>0.413</v>
+        <v>0.428</v>
       </c>
       <c r="F70" t="n">
-        <v>0.218700647354126</v>
+        <v>0.2151594161987305</v>
       </c>
     </row>
     <row r="71">
@@ -1984,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>0.635</v>
+        <v>0.601</v>
       </c>
       <c r="E71" t="n">
-        <v>0.365</v>
+        <v>0.399</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2186973094940186</v>
+        <v>0.2237679958343506</v>
       </c>
     </row>
     <row r="72">
@@ -2006,13 +2006,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>0.678</v>
+        <v>0.596</v>
       </c>
       <c r="E72" t="n">
-        <v>0.322</v>
+        <v>0.404</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2186999320983887</v>
+        <v>0.2124152183532715</v>
       </c>
     </row>
     <row r="73">
@@ -2028,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.616</v>
+        <v>0.498</v>
       </c>
       <c r="E73" t="n">
-        <v>0.384</v>
+        <v>0.502</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2187004089355469</v>
+        <v>0.2168710231781006</v>
       </c>
     </row>
     <row r="74">
@@ -2050,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.617</v>
+        <v>0.75</v>
       </c>
       <c r="E74" t="n">
-        <v>0.383</v>
+        <v>0.25</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2030363082885742</v>
+        <v>0.2142910957336426</v>
       </c>
     </row>
     <row r="75">
@@ -2072,13 +2072,13 @@
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0.675</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.325</v>
+        <v>0.311</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2187373638153076</v>
+        <v>0.2121922969818115</v>
       </c>
     </row>
     <row r="76">
@@ -2094,13 +2094,13 @@
         <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>0.676</v>
+        <v>0.62</v>
       </c>
       <c r="E76" t="n">
-        <v>0.324</v>
+        <v>0.38</v>
       </c>
       <c r="F76" t="n">
-        <v>0.218707799911499</v>
+        <v>0.2252922058105469</v>
       </c>
     </row>
     <row r="77">
@@ -2116,13 +2116,13 @@
         <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.835</v>
+        <v>0.925</v>
       </c>
       <c r="E77" t="n">
-        <v>0.165</v>
+        <v>0.075</v>
       </c>
       <c r="F77" t="n">
-        <v>0.21868896484375</v>
+        <v>0.2272629737854004</v>
       </c>
     </row>
     <row r="78">
@@ -2138,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>0.884</v>
+        <v>0.853</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116</v>
+        <v>0.147</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2186977863311768</v>
+        <v>0.2251431941986084</v>
       </c>
     </row>
     <row r="79">
@@ -2160,13 +2160,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>0.847</v>
+        <v>0.846</v>
       </c>
       <c r="E79" t="n">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2186641693115234</v>
+        <v>0.2251949310302734</v>
       </c>
     </row>
     <row r="80">
@@ -2182,13 +2182,13 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.847</v>
+        <v>0.738</v>
       </c>
       <c r="E80" t="n">
-        <v>0.153</v>
+        <v>0.262</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2187342643737793</v>
+        <v>0.2150297164916992</v>
       </c>
     </row>
     <row r="81">
@@ -2204,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.831</v>
+        <v>0.882</v>
       </c>
       <c r="E81" t="n">
-        <v>0.169</v>
+        <v>0.118</v>
       </c>
       <c r="F81" t="n">
-        <v>0.218698263168335</v>
+        <v>0.2132284641265869</v>
       </c>
     </row>
     <row r="82">
@@ -2226,13 +2226,13 @@
         <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.954</v>
       </c>
       <c r="E82" t="n">
-        <v>0.062</v>
+        <v>0.046</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2343170642852783</v>
+        <v>0.2272026538848877</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>0.923</v>
+        <v>0.792</v>
       </c>
       <c r="E83" t="n">
-        <v>0.077</v>
+        <v>0.208</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2187001705169678</v>
+        <v>0.2228546142578125</v>
       </c>
     </row>
     <row r="84">
@@ -2270,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.91</v>
+        <v>0.764</v>
       </c>
       <c r="E84" t="n">
-        <v>0.09</v>
+        <v>0.236</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2186543941497803</v>
+        <v>0.22721266746521</v>
       </c>
     </row>
     <row r="85">
@@ -2292,13 +2292,13 @@
         <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>0.848</v>
+        <v>0.876</v>
       </c>
       <c r="E85" t="n">
-        <v>0.152</v>
+        <v>0.124</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2343606948852539</v>
+        <v>0.2251791954040527</v>
       </c>
     </row>
     <row r="86">
@@ -2314,13 +2314,13 @@
         <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.868</v>
       </c>
       <c r="E86" t="n">
-        <v>0.188</v>
+        <v>0.132</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2187001705169678</v>
+        <v>0.2225883007049561</v>
       </c>
     </row>
     <row r="87">
@@ -2336,13 +2336,13 @@
         <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>0.905</v>
+        <v>0.913</v>
       </c>
       <c r="E87" t="n">
-        <v>0.095</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2186996936798096</v>
+        <v>0.216153621673584</v>
       </c>
     </row>
     <row r="88">
@@ -2358,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.843</v>
       </c>
       <c r="E88" t="n">
-        <v>0.057</v>
+        <v>0.157</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2186994552612305</v>
+        <v>0.2231583595275879</v>
       </c>
     </row>
     <row r="89">
@@ -2380,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>0.857</v>
+        <v>0.872</v>
       </c>
       <c r="E89" t="n">
-        <v>0.143</v>
+        <v>0.128</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2342753410339355</v>
+        <v>0.2142415046691895</v>
       </c>
     </row>
     <row r="90">
@@ -2402,13 +2402,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>0.837</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.163</v>
+        <v>0.184</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2186985015869141</v>
+        <v>0.2274191379547119</v>
       </c>
     </row>
     <row r="91">
@@ -2424,13 +2424,13 @@
         <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.844</v>
+        <v>0.836</v>
       </c>
       <c r="E91" t="n">
-        <v>0.156</v>
+        <v>0.164</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2187409400939941</v>
+        <v>0.2251765727996826</v>
       </c>
     </row>
     <row r="92">
@@ -2446,13 +2446,13 @@
         <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>0.906</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>0.094</v>
+        <v>0.186</v>
       </c>
       <c r="F92" t="n">
-        <v>0.218656063079834</v>
+        <v>0.2250418663024902</v>
       </c>
     </row>
     <row r="93">
@@ -2468,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>0.768</v>
+        <v>0.832</v>
       </c>
       <c r="E93" t="n">
-        <v>0.232</v>
+        <v>0.168</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2343630790710449</v>
+        <v>0.223289966583252</v>
       </c>
     </row>
     <row r="94">
@@ -2490,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>0.789</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.211</v>
+        <v>0.058</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2187008857727051</v>
+        <v>0.217165470123291</v>
       </c>
     </row>
     <row r="95">
@@ -2512,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.872</v>
+        <v>0.911</v>
       </c>
       <c r="E95" t="n">
-        <v>0.128</v>
+        <v>0.089</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2186954021453857</v>
+        <v>0.2149360179901123</v>
       </c>
     </row>
     <row r="96">
@@ -2534,13 +2534,13 @@
         <v>25</v>
       </c>
       <c r="D96" t="n">
-        <v>0.748</v>
+        <v>0.851</v>
       </c>
       <c r="E96" t="n">
-        <v>0.252</v>
+        <v>0.149</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2187066078186035</v>
+        <v>0.2230796813964844</v>
       </c>
     </row>
     <row r="97">
@@ -2556,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>0.824</v>
+        <v>0.859</v>
       </c>
       <c r="E97" t="n">
-        <v>0.176</v>
+        <v>0.141</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2186930179595947</v>
+        <v>0.2276384830474854</v>
       </c>
     </row>
     <row r="98">
@@ -2578,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.769</v>
+        <v>0.833</v>
       </c>
       <c r="E98" t="n">
-        <v>0.231</v>
+        <v>0.167</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2187120914459229</v>
+        <v>0.2224836349487305</v>
       </c>
     </row>
     <row r="99">
@@ -2600,13 +2600,13 @@
         <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>0.845</v>
+        <v>0.929</v>
       </c>
       <c r="E99" t="n">
-        <v>0.155</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2186856269836426</v>
+        <v>0.216853141784668</v>
       </c>
     </row>
     <row r="100">
@@ -2622,13 +2622,13 @@
         <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>0.915</v>
+        <v>0.826</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.174</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2186987400054932</v>
+        <v>0.2247700691223145</v>
       </c>
     </row>
     <row r="101">
@@ -2644,13 +2644,13 @@
         <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>0.85</v>
+        <v>0.909</v>
       </c>
       <c r="E101" t="n">
-        <v>0.15</v>
+        <v>0.091</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2343158721923828</v>
+        <v>0.2152929306030273</v>
       </c>
     </row>
     <row r="102">
@@ -2666,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6213786213786214</v>
+        <v>0.6443556443556444</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3786213786213786</v>
+        <v>0.3556443556443556</v>
       </c>
       <c r="F102" t="n">
-        <v>21.234375</v>
+        <v>42.625</v>
       </c>
     </row>
     <row r="103">
@@ -2688,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6113886113886113</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3886113886113886</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="F103" t="n">
-        <v>21.046875</v>
+        <v>43.203125</v>
       </c>
     </row>
     <row r="104">
@@ -2710,13 +2710,13 @@
         <v>25</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6263736263736264</v>
+        <v>0.6213786213786214</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.3786213786213786</v>
       </c>
       <c r="F104" t="n">
-        <v>21.09375</v>
+        <v>41.78125</v>
       </c>
     </row>
     <row r="105">
@@ -2732,13 +2732,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6483516483516484</v>
+        <v>0.6783216783216783</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3516483516483517</v>
+        <v>0.3216783216783217</v>
       </c>
       <c r="F105" t="n">
-        <v>21.421875</v>
+        <v>42.984375</v>
       </c>
     </row>
     <row r="106">
@@ -2754,13 +2754,13 @@
         <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6003996003996004</v>
+        <v>0.6453546453546454</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3996003996003996</v>
+        <v>0.3546453546453546</v>
       </c>
       <c r="F106" t="n">
-        <v>21.84375</v>
+        <v>42.46875</v>
       </c>
     </row>
     <row r="107">
@@ -2776,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6053946053946054</v>
+        <v>0.6283716283716284</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3946053946053946</v>
+        <v>0.3716283716283716</v>
       </c>
       <c r="F107" t="n">
-        <v>20.46875</v>
+        <v>42.15625</v>
       </c>
     </row>
     <row r="108">
@@ -2798,13 +2798,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6293706293706294</v>
+        <v>0.5944055944055944</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3706293706293706</v>
+        <v>0.4055944055944056</v>
       </c>
       <c r="F108" t="n">
-        <v>22.734375</v>
+        <v>43.078125</v>
       </c>
     </row>
     <row r="109">
@@ -2820,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6773226773226774</v>
+        <v>0.6273726273726273</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3226773226773227</v>
+        <v>0.3726273726273726</v>
       </c>
       <c r="F109" t="n">
-        <v>22.265625</v>
+        <v>42.671875</v>
       </c>
     </row>
     <row r="110">
@@ -2842,13 +2842,13 @@
         <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6063936063936064</v>
+        <v>0.6413586413586414</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3936063936063936</v>
+        <v>0.3586413586413587</v>
       </c>
       <c r="F110" t="n">
-        <v>21.53125</v>
+        <v>43.703125</v>
       </c>
     </row>
     <row r="111">
@@ -2864,13 +2864,13 @@
         <v>25</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6033966033966034</v>
+        <v>0.6463536463536463</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3966033966033966</v>
+        <v>0.3536463536463537</v>
       </c>
       <c r="F111" t="n">
-        <v>22.1875</v>
+        <v>42.0625</v>
       </c>
     </row>
     <row r="112">
@@ -2886,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6373626373626373</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="F112" t="n">
-        <v>21.640625</v>
+        <v>42.171875</v>
       </c>
     </row>
     <row r="113">
@@ -2908,13 +2908,13 @@
         <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6133866133866134</v>
+        <v>0.5874125874125874</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3866133866133866</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="F113" t="n">
-        <v>22.484375</v>
+        <v>42.0625</v>
       </c>
     </row>
     <row r="114">
@@ -2930,13 +2930,13 @@
         <v>25</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6393606393606394</v>
+        <v>0.6083916083916084</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3606393606393606</v>
+        <v>0.3916083916083916</v>
       </c>
       <c r="F114" t="n">
-        <v>21.6875</v>
+        <v>42.484375</v>
       </c>
     </row>
     <row r="115">
@@ -2952,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6243756243756243</v>
+        <v>0.6473526473526473</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3756243756243756</v>
+        <v>0.3526473526473526</v>
       </c>
       <c r="F115" t="n">
-        <v>21.25</v>
+        <v>43.15625</v>
       </c>
     </row>
     <row r="116">
@@ -2974,13 +2974,13 @@
         <v>25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6413586413586414</v>
+        <v>0.6213786213786214</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3586413586413587</v>
+        <v>0.3786213786213786</v>
       </c>
       <c r="F116" t="n">
-        <v>22.09375</v>
+        <v>42.65625</v>
       </c>
     </row>
     <row r="117">
@@ -2996,13 +2996,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6053946053946054</v>
+        <v>0.6243756243756243</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3946053946053946</v>
+        <v>0.3756243756243756</v>
       </c>
       <c r="F117" t="n">
-        <v>22.046875</v>
+        <v>42.96875</v>
       </c>
     </row>
     <row r="118">
@@ -3018,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6423576423576424</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3576423576423576</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="F118" t="n">
-        <v>21.734375</v>
+        <v>42.40625</v>
       </c>
     </row>
     <row r="119">
@@ -3040,13 +3040,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6453546453546454</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.3546453546453546</v>
       </c>
       <c r="F119" t="n">
-        <v>21.484375</v>
+        <v>43.265625</v>
       </c>
     </row>
     <row r="120">
@@ -3062,13 +3062,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6193806193806194</v>
+        <v>0.6253746253746254</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3806193806193806</v>
+        <v>0.3746253746253747</v>
       </c>
       <c r="F120" t="n">
-        <v>22.15625</v>
+        <v>43.109375</v>
       </c>
     </row>
     <row r="121">
@@ -3084,13 +3084,13 @@
         <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6343656343656343</v>
+        <v>0.6123876123876124</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3656343656343656</v>
+        <v>0.3876123876123876</v>
       </c>
       <c r="F121" t="n">
-        <v>22.25</v>
+        <v>43.015625</v>
       </c>
     </row>
     <row r="122">
@@ -3106,13 +3106,13 @@
         <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6063936063936064</v>
+        <v>0.6393606393606394</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3936063936063936</v>
+        <v>0.3606393606393606</v>
       </c>
       <c r="F122" t="n">
-        <v>21.703125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6453546453546454</v>
+        <v>0.6203796203796204</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3546453546453546</v>
+        <v>0.3796203796203796</v>
       </c>
       <c r="F123" t="n">
-        <v>21.953125</v>
+        <v>42.015625</v>
       </c>
     </row>
     <row r="124">
@@ -3150,13 +3150,13 @@
         <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6473526473526473</v>
+        <v>0.6053946053946054</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3526473526473526</v>
+        <v>0.3946053946053946</v>
       </c>
       <c r="F124" t="n">
-        <v>20.703125</v>
+        <v>40.734375</v>
       </c>
     </row>
     <row r="125">
@@ -3172,13 +3172,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5984015984015985</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4015984015984016</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="F125" t="n">
-        <v>21.65625</v>
+        <v>40.890625</v>
       </c>
     </row>
     <row r="126">
@@ -3194,13 +3194,13 @@
         <v>25</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6123876123876124</v>
+        <v>0.6173826173826173</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3876123876123876</v>
+        <v>0.3826173826173826</v>
       </c>
       <c r="F126" t="n">
-        <v>21.390625</v>
+        <v>40.921875</v>
       </c>
     </row>
     <row r="127">
@@ -3216,13 +3216,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8081918081918081</v>
+        <v>0.8451548451548452</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1918081918081918</v>
+        <v>0.1548451548451548</v>
       </c>
       <c r="F127" t="n">
-        <v>22.140625</v>
+        <v>44.953125</v>
       </c>
     </row>
     <row r="128">
@@ -3238,13 +3238,13 @@
         <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8361638361638362</v>
+        <v>0.8471528471528471</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1638361638361638</v>
+        <v>0.1528471528471528</v>
       </c>
       <c r="F128" t="n">
-        <v>22.03125</v>
+        <v>43.9375</v>
       </c>
     </row>
     <row r="129">
@@ -3260,13 +3260,13 @@
         <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8481518481518482</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1518481518481518</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="F129" t="n">
-        <v>22.296875</v>
+        <v>41.84375</v>
       </c>
     </row>
     <row r="130">
@@ -3282,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8091908091908092</v>
+        <v>0.8591408591408591</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1908091908091908</v>
+        <v>0.1408591408591409</v>
       </c>
       <c r="F130" t="n">
-        <v>22.546875</v>
+        <v>44.421875</v>
       </c>
     </row>
     <row r="131">
@@ -3304,13 +3304,13 @@
         <v>25</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8311688311688312</v>
+        <v>0.8171828171828172</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1688311688311688</v>
+        <v>0.1828171828171828</v>
       </c>
       <c r="F131" t="n">
-        <v>22.71875</v>
+        <v>43.328125</v>
       </c>
     </row>
     <row r="132">
@@ -3326,13 +3326,13 @@
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8291708291708292</v>
+        <v>0.8281718281718282</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1708291708291708</v>
+        <v>0.1718281718281718</v>
       </c>
       <c r="F132" t="n">
-        <v>22.796875</v>
+        <v>44.25</v>
       </c>
     </row>
     <row r="133">
@@ -3348,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8371628371628371</v>
+        <v>0.8281718281718282</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1628371628371628</v>
+        <v>0.1718281718281718</v>
       </c>
       <c r="F133" t="n">
-        <v>22.875</v>
+        <v>44.984375</v>
       </c>
     </row>
     <row r="134">
@@ -3370,13 +3370,13 @@
         <v>25</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8161838161838162</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1838161838161838</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="F134" t="n">
-        <v>22.40625</v>
+        <v>44.640625</v>
       </c>
     </row>
     <row r="135">
@@ -3392,13 +3392,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8271728271728271</v>
+        <v>0.8311688311688312</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1728271728271728</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="F135" t="n">
-        <v>22.140625</v>
+        <v>44.671875</v>
       </c>
     </row>
     <row r="136">
@@ -3414,13 +3414,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8371628371628371</v>
+        <v>0.8261738261738262</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1628371628371628</v>
+        <v>0.1738261738261738</v>
       </c>
       <c r="F136" t="n">
-        <v>22.8125</v>
+        <v>45.140625</v>
       </c>
     </row>
     <row r="137">
@@ -3436,13 +3436,13 @@
         <v>25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8501498501498501</v>
+        <v>0.8301698301698301</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1498501498501499</v>
+        <v>0.1698301698301698</v>
       </c>
       <c r="F137" t="n">
-        <v>21.875</v>
+        <v>42.6875</v>
       </c>
     </row>
     <row r="138">
@@ -3458,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7942057942057942</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2057942057942058</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="F138" t="n">
-        <v>22.4375</v>
+        <v>44.4375</v>
       </c>
     </row>
     <row r="139">
@@ -3480,13 +3480,13 @@
         <v>25</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8141858141858141</v>
+        <v>0.8281718281718282</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1858141858141858</v>
+        <v>0.1718281718281718</v>
       </c>
       <c r="F139" t="n">
-        <v>22.53125</v>
+        <v>46.515625</v>
       </c>
     </row>
     <row r="140">
@@ -3502,13 +3502,13 @@
         <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8131868131868132</v>
+        <v>0.8201798201798202</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1868131868131868</v>
+        <v>0.1798201798201798</v>
       </c>
       <c r="F140" t="n">
-        <v>22.203125</v>
+        <v>45.40625</v>
       </c>
     </row>
     <row r="141">
@@ -3524,13 +3524,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8401598401598401</v>
       </c>
       <c r="E141" t="n">
-        <v>0.1678321678321678</v>
+        <v>0.1598401598401598</v>
       </c>
       <c r="F141" t="n">
-        <v>22.28125</v>
+        <v>45.765625</v>
       </c>
     </row>
     <row r="142">
@@ -3546,13 +3546,13 @@
         <v>25</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8011988011988012</v>
+        <v>0.8451548451548452</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1988011988011988</v>
+        <v>0.1548451548451548</v>
       </c>
       <c r="F142" t="n">
-        <v>21.6875</v>
+        <v>44.46875</v>
       </c>
     </row>
     <row r="143">
@@ -3568,13 +3568,13 @@
         <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8471528471528471</v>
+        <v>0.8521478521478522</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1528471528471528</v>
+        <v>0.1478521478521478</v>
       </c>
       <c r="F143" t="n">
-        <v>22.625</v>
+        <v>43.609375</v>
       </c>
     </row>
     <row r="144">
@@ -3590,13 +3590,13 @@
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7912087912087912</v>
+        <v>0.8271728271728271</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2087912087912088</v>
+        <v>0.1728271728271728</v>
       </c>
       <c r="F144" t="n">
-        <v>21.9375</v>
+        <v>42.3125</v>
       </c>
     </row>
     <row r="145">
@@ -3612,13 +3612,13 @@
         <v>25</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8271728271728271</v>
+        <v>0.8491508491508492</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1728271728271728</v>
+        <v>0.1508491508491508</v>
       </c>
       <c r="F145" t="n">
-        <v>22.125</v>
+        <v>44.703125</v>
       </c>
     </row>
     <row r="146">
@@ -3634,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="D146" t="n">
-        <v>0.8361638361638362</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1638361638361638</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="F146" t="n">
-        <v>22.015625</v>
+        <v>45.1875</v>
       </c>
     </row>
     <row r="147">
@@ -3656,13 +3656,13 @@
         <v>25</v>
       </c>
       <c r="D147" t="n">
-        <v>0.8361638361638362</v>
+        <v>0.8541458541458542</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1638361638361638</v>
+        <v>0.1458541458541459</v>
       </c>
       <c r="F147" t="n">
-        <v>22</v>
+        <v>44.015625</v>
       </c>
     </row>
     <row r="148">
@@ -3678,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8301698301698301</v>
+        <v>0.8261738261738262</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1698301698301698</v>
+        <v>0.1738261738261738</v>
       </c>
       <c r="F148" t="n">
-        <v>22.046875</v>
+        <v>44.265625</v>
       </c>
     </row>
     <row r="149">
@@ -3700,13 +3700,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8241758241758241</v>
+        <v>0.8091908091908092</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1758241758241758</v>
+        <v>0.1908091908091908</v>
       </c>
       <c r="F149" t="n">
-        <v>21.140625</v>
+        <v>45.015625</v>
       </c>
     </row>
     <row r="150">
@@ -3722,13 +3722,13 @@
         <v>25</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8371628371628371</v>
+        <v>0.8141858141858141</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1628371628371628</v>
+        <v>0.1858141858141858</v>
       </c>
       <c r="F150" t="n">
-        <v>20.859375</v>
+        <v>42.890625</v>
       </c>
     </row>
     <row r="151">
@@ -3744,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8131868131868132</v>
+        <v>0.8431568431568431</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1868131868131868</v>
+        <v>0.1568431568431568</v>
       </c>
       <c r="F151" t="n">
-        <v>20.90625</v>
+        <v>44.21875</v>
       </c>
     </row>
     <row r="152">
@@ -3766,13 +3766,13 @@
         <v>25</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6423576423576424</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3576423576423576</v>
+        <v>0.3776223776223776</v>
       </c>
       <c r="F152" t="n">
-        <v>24.796875</v>
+        <v>48.203125</v>
       </c>
     </row>
     <row r="153">
@@ -3788,13 +3788,13 @@
         <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6043956043956044</v>
+        <v>0.6283716283716284</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.3716283716283716</v>
       </c>
       <c r="F153" t="n">
-        <v>24.34375</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154">
@@ -3810,13 +3810,13 @@
         <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6273726273726273</v>
+        <v>0.6203796203796204</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.3796203796203796</v>
       </c>
       <c r="F154" t="n">
-        <v>24.890625</v>
+        <v>48.40625</v>
       </c>
     </row>
     <row r="155">
@@ -3832,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6273726273726273</v>
+        <v>0.6483516483516484</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="F155" t="n">
-        <v>24.75</v>
+        <v>47.734375</v>
       </c>
     </row>
     <row r="156">
@@ -3854,13 +3854,13 @@
         <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6223776223776224</v>
+        <v>0.6443556443556444</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.3556443556443556</v>
       </c>
       <c r="F156" t="n">
-        <v>24.84375</v>
+        <v>49.09375</v>
       </c>
     </row>
     <row r="157">
@@ -3876,13 +3876,13 @@
         <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6253746253746254</v>
+        <v>0.6273726273726273</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3746253746253747</v>
+        <v>0.3726273726273726</v>
       </c>
       <c r="F157" t="n">
-        <v>24.546875</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="158">
@@ -3898,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6033966033966034</v>
+        <v>0.6293706293706294</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3966033966033966</v>
+        <v>0.3706293706293706</v>
       </c>
       <c r="F158" t="n">
-        <v>24.453125</v>
+        <v>47.65625</v>
       </c>
     </row>
     <row r="159">
@@ -3920,13 +3920,13 @@
         <v>25</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6303696303696303</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3696303696303696</v>
+        <v>0.3776223776223776</v>
       </c>
       <c r="F159" t="n">
-        <v>25</v>
+        <v>48.46875</v>
       </c>
     </row>
     <row r="160">
@@ -3948,7 +3948,7 @@
         <v>0.3856143856143856</v>
       </c>
       <c r="F160" t="n">
-        <v>24.5625</v>
+        <v>48.859375</v>
       </c>
     </row>
     <row r="161">
@@ -3964,13 +3964,13 @@
         <v>25</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6313686313686314</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3686313686313686</v>
       </c>
       <c r="F161" t="n">
-        <v>24.609375</v>
+        <v>46.375</v>
       </c>
     </row>
     <row r="162">
@@ -3986,13 +3986,13 @@
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6423576423576424</v>
+        <v>0.5864135864135864</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3576423576423576</v>
+        <v>0.4135864135864136</v>
       </c>
       <c r="F162" t="n">
-        <v>24.859375</v>
+        <v>48.734375</v>
       </c>
     </row>
     <row r="163">
@@ -4014,7 +4014,7 @@
         <v>0.3736263736263736</v>
       </c>
       <c r="F163" t="n">
-        <v>24.90625</v>
+        <v>49.125</v>
       </c>
     </row>
     <row r="164">
@@ -4030,13 +4030,13 @@
         <v>25</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6073926073926074</v>
+        <v>0.6613386613386614</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3926073926073926</v>
+        <v>0.3386613386613387</v>
       </c>
       <c r="F164" t="n">
-        <v>25.09375</v>
+        <v>48.171875</v>
       </c>
     </row>
     <row r="165">
@@ -4052,13 +4052,13 @@
         <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6443556443556444</v>
+        <v>0.6133866133866134</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3556443556443556</v>
+        <v>0.3866133866133866</v>
       </c>
       <c r="F165" t="n">
-        <v>24.671875</v>
+        <v>49.09375</v>
       </c>
     </row>
     <row r="166">
@@ -4074,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6353646353646354</v>
+        <v>0.6403596403596403</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3646353646353646</v>
+        <v>0.3596403596403596</v>
       </c>
       <c r="F166" t="n">
-        <v>24.71875</v>
+        <v>48.359375</v>
       </c>
     </row>
     <row r="167">
@@ -4096,13 +4096,13 @@
         <v>25</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6343656343656343</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3656343656343656</v>
+        <v>0.3776223776223776</v>
       </c>
       <c r="F167" t="n">
-        <v>25.046875</v>
+        <v>47.765625</v>
       </c>
     </row>
     <row r="168">
@@ -4118,13 +4118,13 @@
         <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6703296703296703</v>
+        <v>0.6283716283716284</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.3716283716283716</v>
       </c>
       <c r="F168" t="n">
-        <v>24.671875</v>
+        <v>48.703125</v>
       </c>
     </row>
     <row r="169">
@@ -4140,13 +4140,13 @@
         <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6433566433566433</v>
+        <v>0.6213786213786214</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3566433566433567</v>
+        <v>0.3786213786213786</v>
       </c>
       <c r="F169" t="n">
-        <v>24.546875</v>
+        <v>49.234375</v>
       </c>
     </row>
     <row r="170">
@@ -4162,13 +4162,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6513486513486514</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3486513486513487</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="F170" t="n">
-        <v>24.46875</v>
+        <v>48.796875</v>
       </c>
     </row>
     <row r="171">
@@ -4184,13 +4184,13 @@
         <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6183816183816184</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3816183816183816</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="F171" t="n">
-        <v>24.9375</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="172">
@@ -4206,13 +4206,13 @@
         <v>25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6333666333666333</v>
+        <v>0.6263736263736264</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3666333666333667</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="F172" t="n">
-        <v>25.078125</v>
+        <v>48.984375</v>
       </c>
     </row>
     <row r="173">
@@ -4228,13 +4228,13 @@
         <v>25</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6023976023976024</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3976023976023976</v>
       </c>
       <c r="F173" t="n">
-        <v>24.40625</v>
+        <v>49.8125</v>
       </c>
     </row>
     <row r="174">
@@ -4250,13 +4250,13 @@
         <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>0.6643356643356644</v>
+        <v>0.6163836163836164</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3356643356643357</v>
+        <v>0.3836163836163836</v>
       </c>
       <c r="F174" t="n">
-        <v>24.4375</v>
+        <v>49.765625</v>
       </c>
     </row>
     <row r="175">
@@ -4272,13 +4272,13 @@
         <v>25</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6143856143856143</v>
+        <v>0.6023976023976024</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3856143856143856</v>
+        <v>0.3976023976023976</v>
       </c>
       <c r="F175" t="n">
-        <v>24.40625</v>
+        <v>47.875</v>
       </c>
     </row>
     <row r="176">
@@ -4294,13 +4294,13 @@
         <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6343656343656343</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E176" t="n">
-        <v>0.3656343656343656</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="F176" t="n">
-        <v>23.015625</v>
+        <v>45.265625</v>
       </c>
     </row>
     <row r="177">
@@ -4316,13 +4316,13 @@
         <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8161838161838162</v>
+        <v>0.8481518481518482</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1838161838161838</v>
+        <v>0.1518481518481518</v>
       </c>
       <c r="F177" t="n">
-        <v>25.4375</v>
+        <v>49.3125</v>
       </c>
     </row>
     <row r="178">
@@ -4338,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8441558441558441</v>
+        <v>0.8101898101898102</v>
       </c>
       <c r="E178" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.1898101898101898</v>
       </c>
       <c r="F178" t="n">
-        <v>25.234375</v>
+        <v>48.453125</v>
       </c>
     </row>
     <row r="179">
@@ -4360,13 +4360,13 @@
         <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8201798201798202</v>
+        <v>0.8161838161838162</v>
       </c>
       <c r="E179" t="n">
-        <v>0.1798201798201798</v>
+        <v>0.1838161838161838</v>
       </c>
       <c r="F179" t="n">
-        <v>24.984375</v>
+        <v>49.515625</v>
       </c>
     </row>
     <row r="180">
@@ -4382,13 +4382,13 @@
         <v>25</v>
       </c>
       <c r="D180" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8311688311688312</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="F180" t="n">
-        <v>25.28125</v>
+        <v>50.953125</v>
       </c>
     </row>
     <row r="181">
@@ -4404,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>0.8451548451548452</v>
+        <v>0.8301698301698301</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1548451548451548</v>
+        <v>0.1698301698301698</v>
       </c>
       <c r="F181" t="n">
-        <v>26.0625</v>
+        <v>49.671875</v>
       </c>
     </row>
     <row r="182">
@@ -4426,13 +4426,13 @@
         <v>25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8191808191808192</v>
+        <v>0.8611388611388612</v>
       </c>
       <c r="E182" t="n">
-        <v>0.1808191808191808</v>
+        <v>0.1388611388611388</v>
       </c>
       <c r="F182" t="n">
-        <v>25.78125</v>
+        <v>49.359375</v>
       </c>
     </row>
     <row r="183">
@@ -4448,13 +4448,13 @@
         <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8211788211788211</v>
+        <v>0.8341658341658341</v>
       </c>
       <c r="E183" t="n">
-        <v>0.1788211788211788</v>
+        <v>0.1658341658341658</v>
       </c>
       <c r="F183" t="n">
-        <v>25.125</v>
+        <v>50.0625</v>
       </c>
     </row>
     <row r="184">
@@ -4470,13 +4470,13 @@
         <v>25</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8211788211788211</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="E184" t="n">
-        <v>0.1788211788211788</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="F184" t="n">
-        <v>25.59375</v>
+        <v>49.6875</v>
       </c>
     </row>
     <row r="185">
@@ -4492,13 +4492,13 @@
         <v>25</v>
       </c>
       <c r="D185" t="n">
-        <v>0.8211788211788211</v>
+        <v>0.8331668331668332</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1788211788211788</v>
+        <v>0.1668331668331668</v>
       </c>
       <c r="F185" t="n">
-        <v>25.15625</v>
+        <v>49.546875</v>
       </c>
     </row>
     <row r="186">
@@ -4514,13 +4514,13 @@
         <v>25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.8351648351648352</v>
+        <v>0.8601398601398601</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1648351648351648</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="F186" t="n">
-        <v>25.453125</v>
+        <v>49.78125</v>
       </c>
     </row>
     <row r="187">
@@ -4536,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="D187" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8261738261738262</v>
       </c>
       <c r="E187" t="n">
-        <v>0.1888111888111888</v>
+        <v>0.1738261738261738</v>
       </c>
       <c r="F187" t="n">
-        <v>25.171875</v>
+        <v>50.453125</v>
       </c>
     </row>
     <row r="188">
@@ -4558,13 +4558,13 @@
         <v>25</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8051948051948052</v>
+        <v>0.8231768231768232</v>
       </c>
       <c r="E188" t="n">
-        <v>0.1948051948051948</v>
+        <v>0.1768231768231768</v>
       </c>
       <c r="F188" t="n">
-        <v>25.671875</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="189">
@@ -4580,13 +4580,13 @@
         <v>25</v>
       </c>
       <c r="D189" t="n">
-        <v>0.8121878121878122</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1878121878121878</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="F189" t="n">
-        <v>26.203125</v>
+        <v>48.84375</v>
       </c>
     </row>
     <row r="190">
@@ -4602,13 +4602,13 @@
         <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8081918081918081</v>
+        <v>0.8621378621378621</v>
       </c>
       <c r="E190" t="n">
-        <v>0.1918081918081918</v>
+        <v>0.1378621378621379</v>
       </c>
       <c r="F190" t="n">
-        <v>25.640625</v>
+        <v>51.3125</v>
       </c>
     </row>
     <row r="191">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>0.8091908091908092</v>
+        <v>0.8491508491508492</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1908091908091908</v>
+        <v>0.1508491508491508</v>
       </c>
       <c r="F191" t="n">
-        <v>26.046875</v>
+        <v>51.328125</v>
       </c>
     </row>
     <row r="192">
@@ -4646,13 +4646,13 @@
         <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8201798201798202</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1798201798201798</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="F192" t="n">
-        <v>25.234375</v>
+        <v>49.640625</v>
       </c>
     </row>
     <row r="193">
@@ -4668,13 +4668,13 @@
         <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.8381618381618382</v>
+        <v>0.8311688311688312</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1618381618381618</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="F193" t="n">
-        <v>25.921875</v>
+        <v>49.390625</v>
       </c>
     </row>
     <row r="194">
@@ -4690,13 +4690,13 @@
         <v>25</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8201798201798202</v>
+        <v>0.8641358641358642</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1798201798201798</v>
+        <v>0.1358641358641359</v>
       </c>
       <c r="F194" t="n">
-        <v>26.1875</v>
+        <v>49.078125</v>
       </c>
     </row>
     <row r="195">
@@ -4712,13 +4712,13 @@
         <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8081918081918081</v>
+        <v>0.8501498501498501</v>
       </c>
       <c r="E195" t="n">
-        <v>0.1918081918081918</v>
+        <v>0.1498501498501499</v>
       </c>
       <c r="F195" t="n">
-        <v>25.96875</v>
+        <v>50.875</v>
       </c>
     </row>
     <row r="196">
@@ -4734,13 +4734,13 @@
         <v>25</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8401598401598401</v>
+        <v>0.8291708291708292</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1598401598401598</v>
+        <v>0.1708291708291708</v>
       </c>
       <c r="F196" t="n">
-        <v>25.546875</v>
+        <v>49.34375</v>
       </c>
     </row>
     <row r="197">
@@ -4756,13 +4756,13 @@
         <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8411588411588412</v>
+        <v>0.8451548451548452</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1588411588411588</v>
+        <v>0.1548451548451548</v>
       </c>
       <c r="F197" t="n">
-        <v>24.84375</v>
+        <v>49.9375</v>
       </c>
     </row>
     <row r="198">
@@ -4778,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="D198" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8591408591408591</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1748251748251748</v>
+        <v>0.1408591408591409</v>
       </c>
       <c r="F198" t="n">
-        <v>25.453125</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="199">
@@ -4800,13 +4800,13 @@
         <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8151848151848152</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1848151848151848</v>
+        <v>0.1608391608391608</v>
       </c>
       <c r="F199" t="n">
-        <v>25.0625</v>
+        <v>49.84375</v>
       </c>
     </row>
     <row r="200">
@@ -4822,13 +4822,13 @@
         <v>25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.7942057942057942</v>
+        <v>0.8521478521478522</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2057942057942058</v>
+        <v>0.1478521478521478</v>
       </c>
       <c r="F200" t="n">
-        <v>24.71875</v>
+        <v>48.8125</v>
       </c>
     </row>
     <row r="201">
@@ -4844,13 +4844,13 @@
         <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8341658341658341</v>
+        <v>0.8491508491508492</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1658341658341658</v>
+        <v>0.1508491508491508</v>
       </c>
       <c r="F201" t="n">
-        <v>24.421875</v>
+        <v>48.40625</v>
       </c>
     </row>
     <row r="202">
@@ -4866,13 +4866,13 @@
         <v>25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6013986013986014</v>
+        <v>0.6123876123876124</v>
       </c>
       <c r="E202" t="n">
-        <v>0.3986013986013986</v>
+        <v>0.3876123876123876</v>
       </c>
       <c r="F202" t="n">
-        <v>27.390625</v>
+        <v>55.046875</v>
       </c>
     </row>
     <row r="203">
@@ -4888,13 +4888,13 @@
         <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6163836163836164</v>
+        <v>0.6343656343656343</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3836163836163836</v>
+        <v>0.3656343656343656</v>
       </c>
       <c r="F203" t="n">
-        <v>28.046875</v>
+        <v>54.0625</v>
       </c>
     </row>
     <row r="204">
@@ -4910,13 +4910,13 @@
         <v>25</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6433566433566433</v>
+        <v>0.6183816183816184</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3566433566433567</v>
+        <v>0.3816183816183816</v>
       </c>
       <c r="F204" t="n">
-        <v>27.6875</v>
+        <v>53.53125</v>
       </c>
     </row>
     <row r="205">
@@ -4932,13 +4932,13 @@
         <v>25</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6253746253746254</v>
+        <v>0.6243756243756243</v>
       </c>
       <c r="E205" t="n">
-        <v>0.3746253746253747</v>
+        <v>0.3756243756243756</v>
       </c>
       <c r="F205" t="n">
-        <v>27.390625</v>
+        <v>54.890625</v>
       </c>
     </row>
     <row r="206">
@@ -4954,13 +4954,13 @@
         <v>25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6043956043956044</v>
+        <v>0.6463536463536463</v>
       </c>
       <c r="E206" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.3536463536463537</v>
       </c>
       <c r="F206" t="n">
-        <v>27.5625</v>
+        <v>53.921875</v>
       </c>
     </row>
     <row r="207">
@@ -4976,13 +4976,13 @@
         <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6373626373626373</v>
+        <v>0.6183816183816184</v>
       </c>
       <c r="E207" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.3816183816183816</v>
       </c>
       <c r="F207" t="n">
-        <v>27.625</v>
+        <v>54.15625</v>
       </c>
     </row>
     <row r="208">
@@ -4998,13 +4998,13 @@
         <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6033966033966034</v>
+        <v>0.6093906093906094</v>
       </c>
       <c r="E208" t="n">
-        <v>0.3966033966033966</v>
+        <v>0.3906093906093906</v>
       </c>
       <c r="F208" t="n">
-        <v>27.859375</v>
+        <v>53.375</v>
       </c>
     </row>
     <row r="209">
@@ -5020,13 +5020,13 @@
         <v>25</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6433566433566433</v>
+        <v>0.6193806193806194</v>
       </c>
       <c r="E209" t="n">
-        <v>0.3566433566433567</v>
+        <v>0.3806193806193806</v>
       </c>
       <c r="F209" t="n">
-        <v>27.328125</v>
+        <v>53.71875</v>
       </c>
     </row>
     <row r="210">
@@ -5042,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6463536463536463</v>
+        <v>0.6323676323676324</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3536463536463537</v>
+        <v>0.3676323676323676</v>
       </c>
       <c r="F210" t="n">
-        <v>27.734375</v>
+        <v>53.734375</v>
       </c>
     </row>
     <row r="211">
@@ -5064,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6273726273726273</v>
+        <v>0.5924075924075924</v>
       </c>
       <c r="E211" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.4075924075924076</v>
       </c>
       <c r="F211" t="n">
-        <v>26.75</v>
+        <v>53.578125</v>
       </c>
     </row>
     <row r="212">
@@ -5086,13 +5086,13 @@
         <v>25</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6183816183816184</v>
+        <v>0.6273726273726273</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3816183816183816</v>
+        <v>0.3726273726273726</v>
       </c>
       <c r="F212" t="n">
-        <v>27.234375</v>
+        <v>54.53125</v>
       </c>
     </row>
     <row r="213">
@@ -5108,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.6033966033966034</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3966033966033966</v>
       </c>
       <c r="F213" t="n">
-        <v>27.734375</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="214">
@@ -5130,13 +5130,13 @@
         <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6413586413586414</v>
+        <v>0.6333666333666333</v>
       </c>
       <c r="E214" t="n">
-        <v>0.3586413586413587</v>
+        <v>0.3666333666333667</v>
       </c>
       <c r="F214" t="n">
-        <v>27.9375</v>
+        <v>54.421875</v>
       </c>
     </row>
     <row r="215">
@@ -5152,13 +5152,13 @@
         <v>25</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6193806193806194</v>
       </c>
       <c r="E215" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3806193806193806</v>
       </c>
       <c r="F215" t="n">
-        <v>27.40625</v>
+        <v>53.609375</v>
       </c>
     </row>
     <row r="216">
@@ -5174,13 +5174,13 @@
         <v>25</v>
       </c>
       <c r="D216" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6213786213786214</v>
       </c>
       <c r="E216" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3786213786213786</v>
       </c>
       <c r="F216" t="n">
-        <v>27</v>
+        <v>54.796875</v>
       </c>
     </row>
     <row r="217">
@@ -5196,13 +5196,13 @@
         <v>25</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6123876123876124</v>
       </c>
       <c r="E217" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3876123876123876</v>
       </c>
       <c r="F217" t="n">
-        <v>27.46875</v>
+        <v>53.140625</v>
       </c>
     </row>
     <row r="218">
@@ -5218,13 +5218,13 @@
         <v>25</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6613386613386614</v>
+        <v>0.6003996003996004</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3386613386613387</v>
+        <v>0.3996003996003996</v>
       </c>
       <c r="F218" t="n">
-        <v>27.453125</v>
+        <v>54.40625</v>
       </c>
     </row>
     <row r="219">
@@ -5240,13 +5240,13 @@
         <v>25</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6433566433566433</v>
+        <v>0.6063936063936064</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3566433566433567</v>
+        <v>0.3936063936063936</v>
       </c>
       <c r="F219" t="n">
-        <v>27.890625</v>
+        <v>53.609375</v>
       </c>
     </row>
     <row r="220">
@@ -5262,13 +5262,13 @@
         <v>25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6423576423576424</v>
+        <v>0.6213786213786214</v>
       </c>
       <c r="E220" t="n">
-        <v>0.3576423576423576</v>
+        <v>0.3786213786213786</v>
       </c>
       <c r="F220" t="n">
-        <v>27.6875</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="221">
@@ -5284,13 +5284,13 @@
         <v>25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6273726273726273</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="F221" t="n">
-        <v>27.375</v>
+        <v>55.28125</v>
       </c>
     </row>
     <row r="222">
@@ -5306,13 +5306,13 @@
         <v>25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6033966033966034</v>
+        <v>0.6183816183816184</v>
       </c>
       <c r="E222" t="n">
-        <v>0.3966033966033966</v>
+        <v>0.3816183816183816</v>
       </c>
       <c r="F222" t="n">
-        <v>28.140625</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="223">
@@ -5328,13 +5328,13 @@
         <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6483516483516484</v>
+        <v>0.5954045954045954</v>
       </c>
       <c r="E223" t="n">
-        <v>0.3516483516483517</v>
+        <v>0.4045954045954046</v>
       </c>
       <c r="F223" t="n">
-        <v>27.375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="224">
@@ -5350,13 +5350,13 @@
         <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6093906093906094</v>
+        <v>0.6243756243756243</v>
       </c>
       <c r="E224" t="n">
-        <v>0.3906093906093906</v>
+        <v>0.3756243756243756</v>
       </c>
       <c r="F224" t="n">
-        <v>27.78125</v>
+        <v>53.984375</v>
       </c>
     </row>
     <row r="225">
@@ -5372,13 +5372,13 @@
         <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.6403596403596403</v>
       </c>
       <c r="E225" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.3596403596403596</v>
       </c>
       <c r="F225" t="n">
-        <v>27.203125</v>
+        <v>53.515625</v>
       </c>
     </row>
     <row r="226">
@@ -5394,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>0.5944055944055944</v>
+        <v>0.6403596403596403</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4055944055944056</v>
+        <v>0.3596403596403596</v>
       </c>
       <c r="F226" t="n">
-        <v>27.125</v>
+        <v>52.296875</v>
       </c>
     </row>
     <row r="227">
@@ -5422,7 +5422,7 @@
         <v>0.1618381618381618</v>
       </c>
       <c r="F227" t="n">
-        <v>28.4375</v>
+        <v>56.046875</v>
       </c>
     </row>
     <row r="228">
@@ -5438,13 +5438,13 @@
         <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.8191808191808192</v>
+        <v>0.8411588411588412</v>
       </c>
       <c r="E228" t="n">
-        <v>0.1808191808191808</v>
+        <v>0.1588411588411588</v>
       </c>
       <c r="F228" t="n">
-        <v>28.34375</v>
+        <v>55.6875</v>
       </c>
     </row>
     <row r="229">
@@ -5460,13 +5460,13 @@
         <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.8301698301698301</v>
+        <v>0.8411588411588412</v>
       </c>
       <c r="E229" t="n">
-        <v>0.1698301698301698</v>
+        <v>0.1588411588411588</v>
       </c>
       <c r="F229" t="n">
-        <v>28.875</v>
+        <v>55.265625</v>
       </c>
     </row>
     <row r="230">
@@ -5482,13 +5482,13 @@
         <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.8191808191808192</v>
+        <v>0.8291708291708292</v>
       </c>
       <c r="E230" t="n">
-        <v>0.1808191808191808</v>
+        <v>0.1708291708291708</v>
       </c>
       <c r="F230" t="n">
-        <v>28.6875</v>
+        <v>55.640625</v>
       </c>
     </row>
     <row r="231">
@@ -5504,13 +5504,13 @@
         <v>25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.8361638361638362</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="E231" t="n">
-        <v>0.1638361638361638</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="F231" t="n">
-        <v>29.296875</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232">
@@ -5526,13 +5526,13 @@
         <v>25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.8271728271728271</v>
+        <v>0.8491508491508492</v>
       </c>
       <c r="E232" t="n">
-        <v>0.1728271728271728</v>
+        <v>0.1508491508491508</v>
       </c>
       <c r="F232" t="n">
-        <v>28.828125</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="233">
@@ -5548,13 +5548,13 @@
         <v>25</v>
       </c>
       <c r="D233" t="n">
-        <v>0.8291708291708292</v>
+        <v>0.8581418581418582</v>
       </c>
       <c r="E233" t="n">
-        <v>0.1708291708291708</v>
+        <v>0.1418581418581419</v>
       </c>
       <c r="F233" t="n">
-        <v>28.0625</v>
+        <v>56.34375</v>
       </c>
     </row>
     <row r="234">
@@ -5570,13 +5570,13 @@
         <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.8291708291708292</v>
+        <v>0.8421578421578422</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1708291708291708</v>
+        <v>0.1578421578421579</v>
       </c>
       <c r="F234" t="n">
-        <v>28.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="235">
@@ -5592,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.8101898101898102</v>
+        <v>0.8331668331668332</v>
       </c>
       <c r="E235" t="n">
-        <v>0.1898101898101898</v>
+        <v>0.1668331668331668</v>
       </c>
       <c r="F235" t="n">
-        <v>28.84375</v>
+        <v>56.0625</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5614,13 @@
         <v>25</v>
       </c>
       <c r="D236" t="n">
-        <v>0.8051948051948052</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E236" t="n">
-        <v>0.1948051948051948</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="F236" t="n">
-        <v>28.140625</v>
+        <v>55.203125</v>
       </c>
     </row>
     <row r="237">
@@ -5636,13 +5636,13 @@
         <v>25</v>
       </c>
       <c r="D237" t="n">
-        <v>0.8331668331668332</v>
+        <v>0.8481518481518482</v>
       </c>
       <c r="E237" t="n">
-        <v>0.1668331668331668</v>
+        <v>0.1518481518481518</v>
       </c>
       <c r="F237" t="n">
-        <v>28.40625</v>
+        <v>56.890625</v>
       </c>
     </row>
     <row r="238">
@@ -5658,13 +5658,13 @@
         <v>25</v>
       </c>
       <c r="D238" t="n">
-        <v>0.8151848151848152</v>
+        <v>0.8401598401598401</v>
       </c>
       <c r="E238" t="n">
-        <v>0.1848151848151848</v>
+        <v>0.1598401598401598</v>
       </c>
       <c r="F238" t="n">
-        <v>28.65625</v>
+        <v>56.671875</v>
       </c>
     </row>
     <row r="239">
@@ -5680,13 +5680,13 @@
         <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>0.8491508491508492</v>
+        <v>0.8551448551448552</v>
       </c>
       <c r="E239" t="n">
-        <v>0.1508491508491508</v>
+        <v>0.1448551448551449</v>
       </c>
       <c r="F239" t="n">
-        <v>28.765625</v>
+        <v>55.8125</v>
       </c>
     </row>
     <row r="240">
@@ -5702,13 +5702,13 @@
         <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8471528471528471</v>
       </c>
       <c r="E240" t="n">
-        <v>0.1748251748251748</v>
+        <v>0.1528471528471528</v>
       </c>
       <c r="F240" t="n">
-        <v>28.625</v>
+        <v>55.53125</v>
       </c>
     </row>
     <row r="241">
@@ -5724,13 +5724,13 @@
         <v>25</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8441558441558441</v>
+        <v>0.8281718281718282</v>
       </c>
       <c r="E241" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.1718281718281718</v>
       </c>
       <c r="F241" t="n">
-        <v>28.75</v>
+        <v>55.765625</v>
       </c>
     </row>
     <row r="242">
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="D242" t="n">
-        <v>0.8201798201798202</v>
+        <v>0.8511488511488512</v>
       </c>
       <c r="E242" t="n">
-        <v>0.1798201798201798</v>
+        <v>0.1488511488511489</v>
       </c>
       <c r="F242" t="n">
-        <v>28.75</v>
+        <v>55.625</v>
       </c>
     </row>
     <row r="243">
@@ -5768,13 +5768,13 @@
         <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>0.8241758241758241</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="E243" t="n">
-        <v>0.1758241758241758</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="F243" t="n">
-        <v>27.796875</v>
+        <v>55.34375</v>
       </c>
     </row>
     <row r="244">
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8341658341658341</v>
+        <v>0.8521478521478522</v>
       </c>
       <c r="E244" t="n">
-        <v>0.1658341658341658</v>
+        <v>0.1478521478521478</v>
       </c>
       <c r="F244" t="n">
-        <v>27.75</v>
+        <v>56.09375</v>
       </c>
     </row>
     <row r="245">
@@ -5812,13 +5812,13 @@
         <v>25</v>
       </c>
       <c r="D245" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="E245" t="n">
-        <v>0.1678321678321678</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="F245" t="n">
-        <v>28.34375</v>
+        <v>56.359375</v>
       </c>
     </row>
     <row r="246">
@@ -5840,7 +5840,7 @@
         <v>0.1678321678321678</v>
       </c>
       <c r="F246" t="n">
-        <v>28.421875</v>
+        <v>57.21875</v>
       </c>
     </row>
     <row r="247">
@@ -5856,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="D247" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8381618381618382</v>
       </c>
       <c r="E247" t="n">
-        <v>0.1748251748251748</v>
+        <v>0.1618381618381618</v>
       </c>
       <c r="F247" t="n">
-        <v>28.21875</v>
+        <v>56.109375</v>
       </c>
     </row>
     <row r="248">
@@ -5878,13 +5878,13 @@
         <v>25</v>
       </c>
       <c r="D248" t="n">
-        <v>0.8441558441558441</v>
+        <v>0.8611388611388612</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.1388611388611388</v>
       </c>
       <c r="F248" t="n">
-        <v>27.96875</v>
+        <v>54.703125</v>
       </c>
     </row>
     <row r="249">
@@ -5900,13 +5900,13 @@
         <v>25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.8281718281718282</v>
+        <v>0.8471528471528471</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1718281718281718</v>
+        <v>0.1528471528471528</v>
       </c>
       <c r="F249" t="n">
-        <v>27.796875</v>
+        <v>55.671875</v>
       </c>
     </row>
     <row r="250">
@@ -5922,13 +5922,13 @@
         <v>25</v>
       </c>
       <c r="D250" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8371628371628371</v>
       </c>
       <c r="E250" t="n">
-        <v>0.1678321678321678</v>
+        <v>0.1628371628371628</v>
       </c>
       <c r="F250" t="n">
-        <v>27.515625</v>
+        <v>54.765625</v>
       </c>
     </row>
     <row r="251">
@@ -5944,13 +5944,13 @@
         <v>25</v>
       </c>
       <c r="D251" t="n">
-        <v>0.8271728271728271</v>
+        <v>0.8471528471528471</v>
       </c>
       <c r="E251" t="n">
-        <v>0.1728271728271728</v>
+        <v>0.1528471528471528</v>
       </c>
       <c r="F251" t="n">
-        <v>27.3125</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
